--- a/SchoolManagement/DataImport.xlsx
+++ b/SchoolManagement/DataImport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phat\source\repos\SchoolManagement\SchoolManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E080ABF4-A536-4573-BB05-1B0983294ED9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016204F9-ACB1-4614-BCF9-2D1E06F0945F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{339030C1-1DAE-45B9-82D8-098A8AF5A8BC}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
   <si>
     <t>Gender</t>
   </si>
@@ -158,6 +157,18 @@
   </si>
   <si>
     <t xml:space="preserve"> sdv</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Guess</t>
   </si>
 </sst>
 </file>
@@ -214,18 +225,7 @@
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
     <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -535,15 +535,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA07EF4-8978-4E6D-9F7C-51B67368BA61}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C14" sqref="C14:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -551,22 +551,25 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>67282853</v>
       </c>
@@ -574,22 +577,25 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>33706</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>21046660</v>
       </c>
@@ -597,22 +603,25 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>33707</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>67298327</v>
       </c>
@@ -620,22 +629,25 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>33708</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>21046660</v>
       </c>
@@ -643,22 +655,25 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>33709</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>21080559</v>
       </c>
@@ -666,22 +681,25 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>33710</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>21080559</v>
       </c>
@@ -689,22 +707,25 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>33711</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>67298323</v>
       </c>
@@ -712,22 +733,25 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>33712</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>67064418</v>
       </c>
@@ -735,22 +759,25 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>33713</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>67298323</v>
       </c>
@@ -758,22 +785,25 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>33714</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21080561</v>
       </c>
@@ -781,22 +811,25 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>33715</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>67298327</v>
       </c>
@@ -804,22 +837,25 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>33716</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>67068508</v>
       </c>
@@ -827,22 +863,25 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>33717</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>67282853</v>
       </c>
@@ -850,22 +889,25 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>33718</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>67163660</v>
       </c>
@@ -873,22 +915,25 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>33719</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>21080559</v>
       </c>
@@ -896,25 +941,28 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>33720</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{5FC10825-31A8-46A7-97A1-F02608902981}"/>
-    <hyperlink ref="F3:F16" r:id="rId2" display="asd1@gmail.com" xr:uid="{523B04BA-6A78-48D0-8F36-929C441FF5AA}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{5FC10825-31A8-46A7-97A1-F02608902981}"/>
+    <hyperlink ref="G3:G16" r:id="rId2" display="asd1@gmail.com" xr:uid="{523B04BA-6A78-48D0-8F36-929C441FF5AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
